--- a/Doval Constructions/35830/struct.xlsx
+++ b/Doval Constructions/35830/struct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Doval Constructions\35830\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73C9B9-6F75-4E0E-9CF9-61B33F930327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E92F24-F3A8-459C-890D-8B693F165B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="2955" windowWidth="25410" windowHeight="17625" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="12090" yWindow="2295" windowWidth="25410" windowHeight="17625" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>resource</t>
   </si>
@@ -65,6 +65,96 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>CE08: Park Ridge Road, Clarke Road, and Lindenthal Road Intersection</t>
+  </si>
+  <si>
+    <t>CE14: Teviot Road and Cusack Lane Intersection</t>
+  </si>
+  <si>
+    <t>CE09: Chambers Flat Road (Holloway Rd to Kenny Rd)</t>
+  </si>
+  <si>
+    <t>02.01 - Traffic Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.09 - Removal of Existing Drainage Structures and Concrete Slabs </t>
+  </si>
+  <si>
+    <t>03.10 - Supply and Installation of Precast Concrete Culverts</t>
+  </si>
+  <si>
+    <t>03.11 - Culvert components and structures Precast or In Situ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.18 - Kerb and Channel </t>
+  </si>
+  <si>
+    <t>03.22 - Subsoil Drainage</t>
+  </si>
+  <si>
+    <t>03.35 - Rock Protection</t>
+  </si>
+  <si>
+    <t>04.02 - Ground Surface Treatment</t>
+  </si>
+  <si>
+    <t>04.06 - General Excavation</t>
+  </si>
+  <si>
+    <t>04.08 - Embankment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.08 - Stripping of Topsoil </t>
+  </si>
+  <si>
+    <t>04.09 - Clear and Grub</t>
+  </si>
+  <si>
+    <t>04.09 - Subgrade Level</t>
+  </si>
+  <si>
+    <t>04.09 - Unsuitable Material</t>
+  </si>
+  <si>
+    <t>04.091 - Subgrade Treatment Type A</t>
+  </si>
+  <si>
+    <t>04.092 - Subgrade Treatment Type C</t>
+  </si>
+  <si>
+    <t>04.20 - Installation of Steel beam Guardrail and End Treatments</t>
+  </si>
+  <si>
+    <t>05.01 - Unbound Pavement</t>
+  </si>
+  <si>
+    <t>10.01 - Plant Mixed Lightly Bound Pavements</t>
+  </si>
+  <si>
+    <t>14.07 - Demolition and Removal of Road Furniture</t>
+  </si>
+  <si>
+    <t>14.13 - Supply and Installation of Road Signs</t>
+  </si>
+  <si>
+    <t>16.01 - Landscape and Revegetation Works</t>
+  </si>
+  <si>
+    <t>28.01 - Contractor's Camp and Site</t>
+  </si>
+  <si>
+    <t>45.01 - Road Surface Delineation</t>
+  </si>
+  <si>
+    <t>51.01 - Environmental Management Systems</t>
+  </si>
+  <si>
+    <t>52.01 - Erosion and Sediment Control</t>
+  </si>
+  <si>
+    <t>70.01 - Concrete</t>
   </si>
 </sst>
 </file>
@@ -925,13 +1015,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -982,6 +1076,678 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
